--- a/StockMarket/股票主力成本.xlsx
+++ b/StockMarket/股票主力成本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byj19\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\LearningPython\StockMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3624A24D-95D5-4E8A-B362-265CA07E947D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B1F1F7-690F-40ED-87D3-C488EA060B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长江电力" sheetId="1" r:id="rId1"/>
@@ -21,55 +21,37 @@
     <sheet name="世运电路" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>当日成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日成本平均</t>
   </si>
   <si>
     <t>20日成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20日成本平均</t>
   </si>
   <si>
     <t>60日成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日成本平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>60日成本平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20日成本平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长江电力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,12 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,10 +371,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44032</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18.57</v>
+      </c>
+      <c r="C2">
+        <v>18.45</v>
+      </c>
+      <c r="D2">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(B2:C2)</f>
+        <v>18.509999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>19.12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>18.23</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,149 +475,300 @@
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
         <v>44029</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C1" s="1">
         <v>44032</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D1" s="1">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>37.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>18.57</v>
-      </c>
-      <c r="C3">
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>38.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <f>AVERAGE(B3:C3)</f>
-        <v>18.509999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>19.12</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>35.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>18.23</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8341D6E7-769B-47CF-AF4D-FDE256E4FEB5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5730DF-1C5B-4D61-8FF5-5F9DA297A47E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>206.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>201.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>190.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E6B9C7-822E-410C-AE5E-B01A5A6D0F16}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>29.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>23.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6C6867-DA52-4BFE-BB24-7A16DE4F40EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61593D72-79B0-46EF-BF0B-F856896BE6B3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
